--- a/uploads/CD0128_Pravin_timesheet_February_2024.xlsx
+++ b/uploads/CD0128_Pravin_timesheet_February_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
   <si>
     <t>Cloud Desk Technology LLC</t>
   </si>
@@ -205,6 +205,15 @@
     <t>23/2/2024</t>
   </si>
   <si>
+    <t>A paragraph is defined as “a group of sentences or a single sentence that forms a unit” (Lunsford and Connors 116). Length and appearance do not determine whether a section in a paper is a paragraph. For instance, in some styles of writing, particularly journalistic styles, a paragraph can be just one sentence long.</t>
+  </si>
+  <si>
+    <t>27/2/2024</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Prepared By</t>
   </si>
   <si>
@@ -226,7 +235,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>04/03/2024</t>
+    <t>05/03/2024</t>
   </si>
   <si>
     <t>Leaves</t>
@@ -909,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2179,13 +2188,25 @@
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" ht="34.9" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
+    <row r="43" ht="69.74" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="28">
+        <v>37</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>65</v>
+      </c>
       <c r="H43" s="28"/>
     </row>
     <row r="44" ht="34.9" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
@@ -2569,19 +2590,19 @@
     <row r="86" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="31"/>
       <c r="C86" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D86" s="32"/>
       <c r="E86" s="33"/>
       <c r="F86" s="33"/>
       <c r="G86" s="34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H86" s="35"/>
     </row>
     <row r="87" ht="18" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>6</v>
@@ -2590,7 +2611,7 @@
       <c r="E87" s="39"/>
       <c r="F87" s="39"/>
       <c r="G87" s="40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H87" s="41">
         <v>4</v>
@@ -2598,7 +2619,7 @@
     </row>
     <row r="88" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C88" s="42" t="s">
         <v>6</v>
@@ -2607,7 +2628,7 @@
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
       <c r="G88" s="40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H88" s="44">
         <v>8</v>
@@ -2615,16 +2636,16 @@
     </row>
     <row r="89" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D89" s="47"/>
       <c r="E89" s="48"/>
       <c r="F89" s="48"/>
       <c r="G89" s="49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H89" s="50">
         <v>17</v>
@@ -2637,11 +2658,10 @@
       <c r="E90" s="52"/>
       <c r="F90" s="53"/>
       <c r="G90" s="54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H90" s="55">
-        <f>SUM(H89,H88,H87)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">

--- a/uploads/CD0128_Pravin_timesheet_February_2024.xlsx
+++ b/uploads/CD0128_Pravin_timesheet_February_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="77">
   <si>
     <t>Cloud Desk Technology LLC</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>A paragraph is defined as “a group of sentences or a single sentence that forms a unit” (Lunsford and Connors 116). Length</t>
   </si>
   <si>
     <t>6/2/2024</t>
@@ -1521,16 +1524,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>28</v>
@@ -1548,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H12" s="28"/>
     </row>
@@ -1563,19 +1566,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H13" s="28"/>
     </row>
@@ -1584,19 +1587,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" s="28"/>
     </row>
@@ -1611,13 +1614,13 @@
         <v>25</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" s="28"/>
     </row>
@@ -1626,19 +1629,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" s="28"/>
     </row>
@@ -1653,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="28"/>
     </row>
@@ -1674,13 +1677,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" s="28"/>
     </row>
@@ -1692,16 +1695,16 @@
         <v>32</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" s="28"/>
     </row>
@@ -1716,13 +1719,13 @@
         <v>25</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H20" s="28"/>
     </row>
@@ -1731,19 +1734,19 @@
         <v>15</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H21" s="28"/>
     </row>
@@ -1752,19 +1755,19 @@
         <v>16</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H22" s="28"/>
     </row>
@@ -1779,13 +1782,13 @@
         <v>25</v>
       </c>
       <c r="E23" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>38</v>
-      </c>
       <c r="G23" s="30" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H23" s="28"/>
     </row>
@@ -1794,19 +1797,19 @@
         <v>18</v>
       </c>
       <c r="C24" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>48</v>
-      </c>
       <c r="F24" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" s="28"/>
     </row>
@@ -1815,19 +1818,19 @@
         <v>19</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25" s="28"/>
     </row>
@@ -1842,13 +1845,13 @@
         <v>25</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" s="28"/>
     </row>
@@ -1857,19 +1860,19 @@
         <v>21</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" s="28"/>
     </row>
@@ -1878,19 +1881,19 @@
         <v>22</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" s="28"/>
     </row>
@@ -1902,16 +1905,16 @@
         <v>53</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" s="28"/>
     </row>
@@ -1920,19 +1923,19 @@
         <v>24</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30" s="28"/>
     </row>
@@ -1941,19 +1944,19 @@
         <v>25</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F31" s="30" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31" s="28"/>
     </row>
@@ -1962,7 +1965,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>25</v>
@@ -1971,10 +1974,10 @@
         <v>55</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H32" s="28"/>
     </row>
@@ -1983,16 +1986,16 @@
         <v>27</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>28</v>
@@ -2010,13 +2013,13 @@
         <v>30</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H34" s="28"/>
     </row>
@@ -2028,16 +2031,16 @@
         <v>32</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E35" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>56</v>
       </c>
       <c r="H35" s="28"/>
     </row>
@@ -2049,16 +2052,16 @@
         <v>32</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E36" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>28</v>
       </c>
       <c r="H36" s="28"/>
     </row>
@@ -2076,7 +2079,7 @@
         <v>58</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G37" s="30" t="s">
         <v>28</v>
@@ -2088,16 +2091,16 @@
         <v>32</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>28</v>
@@ -2109,16 +2112,16 @@
         <v>33</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>28</v>
@@ -2130,16 +2133,16 @@
         <v>34</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>28</v>
@@ -2151,13 +2154,13 @@
         <v>35</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F41" s="30" t="s">
         <v>27</v>
@@ -2175,47 +2178,59 @@
         <v>32</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>62</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" ht="69.74" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" ht="34.9" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="28">
         <v>37</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="28"/>
+    </row>
+    <row r="44" ht="69.74" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="28">
+        <v>38</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="30" t="s">
+      <c r="D44" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" ht="34.9" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
+      <c r="F44" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="H44" s="28"/>
     </row>
     <row r="45" ht="34.9" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
@@ -2590,19 +2605,19 @@
     <row r="86" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="31"/>
       <c r="C86" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D86" s="32"/>
       <c r="E86" s="33"/>
       <c r="F86" s="33"/>
       <c r="G86" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H86" s="35"/>
     </row>
     <row r="87" ht="18" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>6</v>
@@ -2611,7 +2626,7 @@
       <c r="E87" s="39"/>
       <c r="F87" s="39"/>
       <c r="G87" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H87" s="41">
         <v>4</v>
@@ -2619,7 +2634,7 @@
     </row>
     <row r="88" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C88" s="42" t="s">
         <v>6</v>
@@ -2628,7 +2643,7 @@
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
       <c r="G88" s="40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H88" s="44">
         <v>8</v>
@@ -2636,16 +2651,16 @@
     </row>
     <row r="89" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D89" s="47"/>
       <c r="E89" s="48"/>
       <c r="F89" s="48"/>
       <c r="G89" s="49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H89" s="50">
         <v>17</v>
@@ -2658,7 +2673,7 @@
       <c r="E90" s="52"/>
       <c r="F90" s="53"/>
       <c r="G90" s="54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H90" s="55">
         <v>29</v>
